--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Python\ICTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Python\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD92CEE-294D-4A01-B3DB-1473ABBDE278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2862C-4EA0-4041-8F9A-1E6E03DFA3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="178">
   <si>
     <t>First name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Mitchell</t>
   </si>
   <si>
@@ -549,16 +546,39 @@
   </si>
   <si>
     <t>okeyofreeman@gmail.com</t>
+  </si>
+  <si>
+    <t>Chebet</t>
+  </si>
+  <si>
+    <t>mercy@gmail.com</t>
+  </si>
+  <si>
+    <t>Ceciliah</t>
+  </si>
+  <si>
+    <t>Kinyua</t>
+  </si>
+  <si>
+    <t>ceciliah@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,13 +601,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -866,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +902,7 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,755 +912,622 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>102</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>107</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>111</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>117</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>120</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>123</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>126</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>129</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>130</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>131</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>132</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>135</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>137</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>138</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>140</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>141</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>142</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>144</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>145</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>146</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>147</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>149</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>150</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>151</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>152</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>153</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>155</v>
       </c>
-      <c r="C53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C54" r:id="rId1" xr:uid="{C6C6990A-8CFA-4151-8DF4-F6688C4A5148}"/>
+    <hyperlink ref="C55" r:id="rId2" xr:uid="{13BD063A-35E9-41CE-826B-740015063729}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D53"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,749 +1537,616 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>75</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>78</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>81</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>84</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>87</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>90</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>93</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>95</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>96</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>97</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>99</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>101</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>104</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>105</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>106</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>107</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>108</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>111</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>112</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>113</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>114</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>115</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>116</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>117</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>119</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>120</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>121</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>123</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>125</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>126</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>127</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>128</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>129</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>131</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>132</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>134</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>135</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>136</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>137</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>138</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>139</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>140</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>141</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>142</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>144</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>145</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>146</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>147</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>148</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>149</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>150</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>151</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>152</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>153</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>154</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>155</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>156</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>157</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>158</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>159</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>160</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>161</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>162</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>163</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>164</v>
       </c>
-      <c r="C53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C54" r:id="rId1" xr:uid="{D34FBE11-19F8-4425-9C4F-7D713AEF4ECB}"/>
+    <hyperlink ref="C55" r:id="rId2" xr:uid="{C2805330-7060-4A7A-B0E4-6EA5D0D67430}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2156,7 @@
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2409,739 +2166,606 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>102</v>
       </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>107</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="B39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>173</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C54" r:id="rId1" xr:uid="{B9291C53-D76D-4E08-9CC4-DE39256D6A6B}"/>
+    <hyperlink ref="C55" r:id="rId2" xr:uid="{1EC58BB5-C898-4A9E-A5E0-6C9317814D63}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>